--- a/Labs/07-uart/Zošit1.xlsx
+++ b/Labs/07-uart/Zošit1.xlsx
@@ -77,7 +77,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -86,80 +86,135 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -169,18 +224,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normálne" xfId="0" builtinId="0"/>
@@ -464,15 +542,13 @@
   <dimension ref="C6:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D22:D24"/>
+      <selection activeCell="C7" sqref="C7:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="10.88671875" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="14.109375" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -500,7 +576,9 @@
       <c r="E8" s="5">
         <v>0</v>
       </c>
-      <c r="F8" s="6"/>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C9" s="4" t="s">
@@ -512,7 +590,9 @@
       <c r="E9" s="5">
         <v>101</v>
       </c>
-      <c r="F9" s="6"/>
+      <c r="F9" s="6">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="10" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C10" s="4" t="s">
@@ -524,43 +604,51 @@
       <c r="E10" s="5">
         <v>245</v>
       </c>
-      <c r="F10" s="6"/>
+      <c r="F10" s="6">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="5">
+        <v>1.96</v>
+      </c>
+      <c r="E11" s="7">
+        <v>403</v>
+      </c>
+      <c r="F11" s="8">
         <v>1.97</v>
       </c>
-      <c r="E11" s="10">
-        <v>403</v>
-      </c>
-      <c r="F11" s="6"/>
     </row>
     <row r="12" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="5">
+        <v>3.16</v>
+      </c>
+      <c r="E12" s="7">
+        <v>650</v>
+      </c>
+      <c r="F12" s="8">
         <v>3.18</v>
       </c>
-      <c r="E12" s="10">
-        <v>650</v>
-      </c>
-      <c r="F12" s="6"/>
     </row>
     <row r="13" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="10">
         <v>5</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="10">
         <v>1023</v>
       </c>
-      <c r="F13" s="9"/>
+      <c r="F13" s="11">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
